--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H2">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I2">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J2">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8923635000000001</v>
+        <v>0.2187345</v>
       </c>
       <c r="N2">
-        <v>1.784727</v>
+        <v>0.437469</v>
       </c>
       <c r="O2">
-        <v>0.3792348257544297</v>
+        <v>0.2450705582458688</v>
       </c>
       <c r="P2">
-        <v>0.3016563721599399</v>
+        <v>0.1779142177157368</v>
       </c>
       <c r="Q2">
-        <v>0.605299085685</v>
+        <v>0.44638188403875</v>
       </c>
       <c r="R2">
-        <v>2.42119634274</v>
+        <v>1.785527536155</v>
       </c>
       <c r="S2">
-        <v>0.001670660588847712</v>
+        <v>0.001884477701459595</v>
       </c>
       <c r="T2">
-        <v>0.0008880933173494178</v>
+        <v>0.0009154459020728954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H3">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I3">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J3">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.250402</v>
+        <v>0.6615776666666667</v>
       </c>
       <c r="N3">
-        <v>0.500804</v>
+        <v>1.984733</v>
       </c>
       <c r="O3">
-        <v>0.1064153328083911</v>
+        <v>0.7412329014993033</v>
       </c>
       <c r="P3">
-        <v>0.08464640127211978</v>
+        <v>0.8071708374070103</v>
       </c>
       <c r="Q3">
-        <v>0.16985018062</v>
+        <v>1.350112969305834</v>
       </c>
       <c r="R3">
-        <v>0.6794007224800001</v>
+        <v>8.100677815835001</v>
       </c>
       <c r="S3">
-        <v>0.0004687963512275489</v>
+        <v>0.005699733515366813</v>
       </c>
       <c r="T3">
-        <v>0.0002492037637699535</v>
+        <v>0.004153244439169047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,108 +667,108 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H4">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I4">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J4">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.050507666666667</v>
+        <v>0.01222466666666667</v>
       </c>
       <c r="N4">
-        <v>3.151523</v>
+        <v>0.036674</v>
       </c>
       <c r="O4">
-        <v>0.4464426121440712</v>
+        <v>0.01369654025482795</v>
       </c>
       <c r="P4">
-        <v>0.5326736217688253</v>
+        <v>0.01491494487725286</v>
       </c>
       <c r="Q4">
-        <v>0.7125698553766666</v>
+        <v>0.02494745793833333</v>
       </c>
       <c r="R4">
-        <v>4.27541913226</v>
+        <v>0.14968474763</v>
       </c>
       <c r="S4">
-        <v>0.001966734135789249</v>
+        <v>0.0001053199734889088</v>
       </c>
       <c r="T4">
-        <v>0.001568221086907403</v>
+        <v>7.674386759432409E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.67831</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H5">
-        <v>1.35662</v>
+        <v>324.26945</v>
       </c>
       <c r="I5">
-        <v>0.004405345910740629</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J5">
-        <v>0.002944056215323526</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.15979</v>
+        <v>0.2187345</v>
       </c>
       <c r="N5">
-        <v>0.47937</v>
+        <v>0.437469</v>
       </c>
       <c r="O5">
-        <v>0.06790722929310794</v>
+        <v>0.2450705582458688</v>
       </c>
       <c r="P5">
-        <v>0.08102360479911515</v>
+        <v>0.1779142177157368</v>
       </c>
       <c r="Q5">
-        <v>0.1083871549</v>
+        <v>23.642972003675</v>
       </c>
       <c r="R5">
-        <v>0.6503229294</v>
+        <v>141.85783202205</v>
       </c>
       <c r="S5">
-        <v>0.0002991548348761193</v>
+        <v>0.0998128623277446</v>
       </c>
       <c r="T5">
-        <v>0.000238538047296752</v>
+        <v>0.07273098194899948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>324.26945</v>
       </c>
       <c r="I6">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J6">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8923635000000001</v>
+        <v>0.6615776666666667</v>
       </c>
       <c r="N6">
-        <v>1.784727</v>
+        <v>1.984733</v>
       </c>
       <c r="O6">
-        <v>0.3792348257544297</v>
+        <v>0.7412329014993033</v>
       </c>
       <c r="P6">
-        <v>0.3016563721599399</v>
+        <v>0.8071708374070103</v>
       </c>
       <c r="Q6">
-        <v>96.45540711502501</v>
+        <v>71.50980870076111</v>
       </c>
       <c r="R6">
-        <v>578.73244269015</v>
+        <v>643.58827830685</v>
       </c>
       <c r="S6">
-        <v>0.2662225188494561</v>
+        <v>0.3018909251266285</v>
       </c>
       <c r="T6">
-        <v>0.2122787011584461</v>
+        <v>0.3299698492843689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>324.26945</v>
       </c>
       <c r="I7">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J7">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.250402</v>
+        <v>0.01222466666666667</v>
       </c>
       <c r="N7">
-        <v>0.500804</v>
+        <v>0.036674</v>
       </c>
       <c r="O7">
-        <v>0.1064153328083911</v>
+        <v>0.01369654025482795</v>
       </c>
       <c r="P7">
-        <v>0.08464640127211978</v>
+        <v>0.01491494487725286</v>
       </c>
       <c r="Q7">
-        <v>27.06590627296667</v>
+        <v>1.321361978811111</v>
       </c>
       <c r="R7">
-        <v>162.3954376378</v>
+        <v>11.8922578093</v>
       </c>
       <c r="S7">
-        <v>0.07470347135998001</v>
+        <v>0.005578356276685061</v>
       </c>
       <c r="T7">
-        <v>0.05956654583863775</v>
+        <v>0.006097200103316137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>108.0898166666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H8">
-        <v>324.26945</v>
+        <v>148.77789</v>
       </c>
       <c r="I8">
-        <v>0.7019991329115071</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J8">
-        <v>0.7037103166045329</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.050507666666667</v>
+        <v>0.2187345</v>
       </c>
       <c r="N8">
-        <v>3.151523</v>
+        <v>0.437469</v>
       </c>
       <c r="O8">
-        <v>0.4464426121440712</v>
+        <v>0.2450705582458688</v>
       </c>
       <c r="P8">
-        <v>0.5326736217688253</v>
+        <v>0.1779142177157368</v>
       </c>
       <c r="Q8">
-        <v>113.5491810969278</v>
+        <v>10.847619126735</v>
       </c>
       <c r="R8">
-        <v>1021.94262987235</v>
+        <v>65.08571476041</v>
       </c>
       <c r="S8">
-        <v>0.3134023266198862</v>
+        <v>0.04579508508119507</v>
       </c>
       <c r="T8">
-        <v>0.3748479230218232</v>
+        <v>0.03336966227315041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>108.0898166666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H9">
-        <v>324.26945</v>
+        <v>148.77789</v>
       </c>
       <c r="I9">
-        <v>0.7019991329115071</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J9">
-        <v>0.7037103166045329</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.15979</v>
+        <v>0.6615776666666667</v>
       </c>
       <c r="N9">
-        <v>0.47937</v>
+        <v>1.984733</v>
       </c>
       <c r="O9">
-        <v>0.06790722929310794</v>
+        <v>0.7412329014993033</v>
       </c>
       <c r="P9">
-        <v>0.08102360479911515</v>
+        <v>0.8071708374070103</v>
       </c>
       <c r="Q9">
-        <v>17.27167180516667</v>
+        <v>32.80937643926334</v>
       </c>
       <c r="R9">
-        <v>155.4450462465</v>
+        <v>295.28438795337</v>
       </c>
       <c r="S9">
-        <v>0.04767081608218467</v>
+        <v>0.1385104111734478</v>
       </c>
       <c r="T9">
-        <v>0.05701714658562587</v>
+        <v>0.1513932870954893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H10">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I10">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J10">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.8923635000000001</v>
+        <v>0.01222466666666667</v>
       </c>
       <c r="N10">
-        <v>1.784727</v>
+        <v>0.036674</v>
       </c>
       <c r="O10">
-        <v>0.3792348257544297</v>
+        <v>0.01369654025482795</v>
       </c>
       <c r="P10">
-        <v>0.3016563721599399</v>
+        <v>0.01491494487725286</v>
       </c>
       <c r="Q10">
-        <v>15.6907180335465</v>
+        <v>0.6062533708733334</v>
       </c>
       <c r="R10">
-        <v>94.14430820127902</v>
+        <v>5.45628033786</v>
       </c>
       <c r="S10">
-        <v>0.04330729196410849</v>
+        <v>0.002559402609507185</v>
       </c>
       <c r="T10">
-        <v>0.03453207387775168</v>
+        <v>0.002797453063429678</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.58332566666667</v>
+        <v>0.9116095</v>
       </c>
       <c r="H11">
-        <v>52.749977</v>
+        <v>1.823219</v>
       </c>
       <c r="I11">
-        <v>0.114196505761187</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J11">
-        <v>0.1144748696355818</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.250402</v>
+        <v>0.2187345</v>
       </c>
       <c r="N11">
-        <v>0.500804</v>
+        <v>0.437469</v>
       </c>
       <c r="O11">
-        <v>0.1064153328083911</v>
+        <v>0.2450705582458688</v>
       </c>
       <c r="P11">
-        <v>0.08464640127211978</v>
+        <v>0.1779142177157368</v>
       </c>
       <c r="Q11">
-        <v>4.402899913584667</v>
+        <v>0.19940044817775</v>
       </c>
       <c r="R11">
-        <v>26.417399481508</v>
+        <v>0.797601792711</v>
       </c>
       <c r="S11">
-        <v>0.01215225916613207</v>
+        <v>0.0008418031996553862</v>
       </c>
       <c r="T11">
-        <v>0.009689885750747061</v>
+        <v>0.0004089330899906632</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.58332566666667</v>
+        <v>0.9116095</v>
       </c>
       <c r="H12">
-        <v>52.749977</v>
+        <v>1.823219</v>
       </c>
       <c r="I12">
-        <v>0.114196505761187</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J12">
-        <v>0.1144748696355818</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.050507666666667</v>
+        <v>0.6615776666666667</v>
       </c>
       <c r="N12">
-        <v>3.151523</v>
+        <v>1.984733</v>
       </c>
       <c r="O12">
-        <v>0.4464426121440712</v>
+        <v>0.7412329014993033</v>
       </c>
       <c r="P12">
-        <v>0.5326736217688253</v>
+        <v>0.8071708374070103</v>
       </c>
       <c r="Q12">
-        <v>18.47141841833011</v>
+        <v>0.6031004859211667</v>
       </c>
       <c r="R12">
-        <v>166.242765764971</v>
+        <v>3.618602915527</v>
       </c>
       <c r="S12">
-        <v>0.0509821863297498</v>
+        <v>0.002546092164795881</v>
       </c>
       <c r="T12">
-        <v>0.0609777434102995</v>
+        <v>0.001855269741390679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.58332566666667</v>
+        <v>0.9116095</v>
       </c>
       <c r="H13">
-        <v>52.749977</v>
+        <v>1.823219</v>
       </c>
       <c r="I13">
-        <v>0.114196505761187</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J13">
-        <v>0.1144748696355818</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.15979</v>
+        <v>0.01222466666666667</v>
       </c>
       <c r="N13">
-        <v>0.47937</v>
+        <v>0.036674</v>
       </c>
       <c r="O13">
-        <v>0.06790722929310794</v>
+        <v>0.01369654025482795</v>
       </c>
       <c r="P13">
-        <v>0.08102360479911515</v>
+        <v>0.01491494487725286</v>
       </c>
       <c r="Q13">
-        <v>2.809639608276667</v>
+        <v>0.01114412226766667</v>
       </c>
       <c r="R13">
-        <v>25.28675647449</v>
+        <v>0.066864733606</v>
       </c>
       <c r="S13">
-        <v>0.007754768301196648</v>
+        <v>4.704682395653426E-05</v>
       </c>
       <c r="T13">
-        <v>0.00927516659678361</v>
+        <v>3.428177114793868E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.444929</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H14">
-        <v>0.889858</v>
+        <v>292.867664</v>
       </c>
       <c r="I14">
-        <v>0.002889631806577992</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J14">
-        <v>0.001931117022935945</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.8923635000000001</v>
+        <v>0.2187345</v>
       </c>
       <c r="N14">
-        <v>1.784727</v>
+        <v>0.437469</v>
       </c>
       <c r="O14">
-        <v>0.3792348257544297</v>
+        <v>0.2450705582458688</v>
       </c>
       <c r="P14">
-        <v>0.3016563721599399</v>
+        <v>0.1779142177157368</v>
       </c>
       <c r="Q14">
-        <v>0.3970383996915001</v>
+        <v>21.353420683736</v>
       </c>
       <c r="R14">
-        <v>1.588153598766</v>
+        <v>128.120524102416</v>
       </c>
       <c r="S14">
-        <v>0.001095849014662063</v>
+        <v>0.09014712865205206</v>
       </c>
       <c r="T14">
-        <v>0.0005825337553551608</v>
+        <v>0.06568781852200274</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>97.62255466666666</v>
+      </c>
+      <c r="H15">
+        <v>292.867664</v>
+      </c>
+      <c r="I15">
+        <v>0.3678415281594588</v>
+      </c>
+      <c r="J15">
+        <v>0.3692106193949926</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.444929</v>
-      </c>
-      <c r="H15">
-        <v>0.889858</v>
-      </c>
-      <c r="I15">
-        <v>0.002889631806577992</v>
-      </c>
-      <c r="J15">
-        <v>0.001931117022935945</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.250402</v>
+        <v>0.6615776666666667</v>
       </c>
       <c r="N15">
-        <v>0.500804</v>
+        <v>1.984733</v>
       </c>
       <c r="O15">
-        <v>0.1064153328083911</v>
+        <v>0.7412329014993033</v>
       </c>
       <c r="P15">
-        <v>0.08464640127211978</v>
+        <v>0.8071708374070103</v>
       </c>
       <c r="Q15">
-        <v>0.111411111458</v>
+        <v>64.58490193041244</v>
       </c>
       <c r="R15">
-        <v>0.445644445832</v>
+        <v>581.264117373712</v>
       </c>
       <c r="S15">
-        <v>0.0003075011303907095</v>
+        <v>0.2726562432095733</v>
       </c>
       <c r="T15">
-        <v>0.0001634621064268574</v>
+        <v>0.2980160448366171</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.444929</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H16">
-        <v>0.889858</v>
+        <v>292.867664</v>
       </c>
       <c r="I16">
-        <v>0.002889631806577992</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J16">
-        <v>0.001931117022935945</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.050507666666667</v>
+        <v>0.01222466666666667</v>
       </c>
       <c r="N16">
-        <v>3.151523</v>
+        <v>0.036674</v>
       </c>
       <c r="O16">
-        <v>0.4464426121440712</v>
+        <v>0.01369654025482795</v>
       </c>
       <c r="P16">
-        <v>0.5326736217688253</v>
+        <v>0.01491494487725286</v>
       </c>
       <c r="Q16">
-        <v>0.4674013256223333</v>
+        <v>1.193403189948444</v>
       </c>
       <c r="R16">
-        <v>2.804407953734</v>
+        <v>10.740628709536</v>
       </c>
       <c r="S16">
-        <v>0.00129005477186327</v>
+        <v>0.005038156297833457</v>
       </c>
       <c r="T16">
-        <v>0.001028655098666722</v>
+        <v>0.0055067560363727</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,69 +1464,69 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.444929</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H17">
-        <v>0.889858</v>
+        <v>21.406827</v>
       </c>
       <c r="I17">
-        <v>0.002889631806577992</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J17">
-        <v>0.001931117022935945</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.15979</v>
+        <v>0.2187345</v>
       </c>
       <c r="N17">
-        <v>0.47937</v>
+        <v>0.437469</v>
       </c>
       <c r="O17">
-        <v>0.06790722929310794</v>
+        <v>0.2450705582458688</v>
       </c>
       <c r="P17">
-        <v>0.08102360479911515</v>
+        <v>0.1779142177157368</v>
       </c>
       <c r="Q17">
-        <v>0.07109520491000001</v>
+        <v>1.5608038668105</v>
       </c>
       <c r="R17">
-        <v>0.42657122946</v>
+        <v>9.364823200863002</v>
       </c>
       <c r="S17">
-        <v>0.0001962268896619494</v>
+        <v>0.00658920128376215</v>
       </c>
       <c r="T17">
-        <v>0.0001564660624872058</v>
+        <v>0.004801375979520596</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.181792</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H18">
-        <v>3.545376</v>
+        <v>21.406827</v>
       </c>
       <c r="I18">
-        <v>0.007675255494605696</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J18">
-        <v>0.00769396459469775</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.8923635000000001</v>
+        <v>0.6615776666666667</v>
       </c>
       <c r="N18">
-        <v>1.784727</v>
+        <v>1.984733</v>
       </c>
       <c r="O18">
-        <v>0.3792348257544297</v>
+        <v>0.7412329014993033</v>
       </c>
       <c r="P18">
-        <v>0.3016563721599399</v>
+        <v>0.8071708374070103</v>
       </c>
       <c r="Q18">
-        <v>1.054588045392</v>
+        <v>4.720759552465668</v>
       </c>
       <c r="R18">
-        <v>6.327528272352001</v>
+        <v>42.48683597219101</v>
       </c>
       <c r="S18">
-        <v>0.002910724180117521</v>
+        <v>0.01992949630949104</v>
       </c>
       <c r="T18">
-        <v>0.002320933447163546</v>
+        <v>0.02178314200997522</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.181792</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H19">
-        <v>3.545376</v>
+        <v>21.406827</v>
       </c>
       <c r="I19">
-        <v>0.007675255494605696</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J19">
-        <v>0.00769396459469775</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.250402</v>
+        <v>0.01222466666666667</v>
       </c>
       <c r="N19">
-        <v>0.500804</v>
+        <v>0.036674</v>
       </c>
       <c r="O19">
-        <v>0.1064153328083911</v>
+        <v>0.01369654025482795</v>
       </c>
       <c r="P19">
-        <v>0.08464640127211978</v>
+        <v>0.01491494487725286</v>
       </c>
       <c r="Q19">
-        <v>0.295923080384</v>
+        <v>0.08723044148866668</v>
       </c>
       <c r="R19">
-        <v>1.775538482304</v>
+        <v>0.7850739733980001</v>
       </c>
       <c r="S19">
-        <v>0.0008167648678478977</v>
+        <v>0.0003682582733568064</v>
       </c>
       <c r="T19">
-        <v>0.0006512664144562682</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.181792</v>
-      </c>
-      <c r="H20">
-        <v>3.545376</v>
-      </c>
-      <c r="I20">
-        <v>0.007675255494605696</v>
-      </c>
-      <c r="J20">
-        <v>0.00769396459469775</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.050507666666667</v>
-      </c>
-      <c r="N20">
-        <v>3.151523</v>
-      </c>
-      <c r="O20">
-        <v>0.4464426121440712</v>
-      </c>
-      <c r="P20">
-        <v>0.5326736217688253</v>
-      </c>
-      <c r="Q20">
-        <v>1.241481556405333</v>
-      </c>
-      <c r="R20">
-        <v>11.173334007648</v>
-      </c>
-      <c r="S20">
-        <v>0.003426561111884902</v>
-      </c>
-      <c r="T20">
-        <v>0.004098371986418762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.181792</v>
-      </c>
-      <c r="H21">
-        <v>3.545376</v>
-      </c>
-      <c r="I21">
-        <v>0.007675255494605696</v>
-      </c>
-      <c r="J21">
-        <v>0.00769396459469775</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.15979</v>
-      </c>
-      <c r="N21">
-        <v>0.47937</v>
-      </c>
-      <c r="O21">
-        <v>0.06790722929310794</v>
-      </c>
-      <c r="P21">
-        <v>0.08102360479911515</v>
-      </c>
-      <c r="Q21">
-        <v>0.18883854368</v>
-      </c>
-      <c r="R21">
-        <v>1.69954689312</v>
-      </c>
-      <c r="S21">
-        <v>0.0005212053347553756</v>
-      </c>
-      <c r="T21">
-        <v>0.0006233927466591747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>25.99611466666667</v>
-      </c>
-      <c r="H22">
-        <v>77.988344</v>
-      </c>
-      <c r="I22">
-        <v>0.1688341281153816</v>
-      </c>
-      <c r="J22">
-        <v>0.1692456759269281</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.8923635000000001</v>
-      </c>
-      <c r="N22">
-        <v>1.784727</v>
-      </c>
-      <c r="O22">
-        <v>0.3792348257544297</v>
-      </c>
-      <c r="P22">
-        <v>0.3016563721599399</v>
-      </c>
-      <c r="Q22">
-        <v>23.197983870348</v>
-      </c>
-      <c r="R22">
-        <v>139.187903222088</v>
-      </c>
-      <c r="S22">
-        <v>0.06402778115723781</v>
-      </c>
-      <c r="T22">
-        <v>0.051054036603874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>25.99611466666667</v>
-      </c>
-      <c r="H23">
-        <v>77.988344</v>
-      </c>
-      <c r="I23">
-        <v>0.1688341281153816</v>
-      </c>
-      <c r="J23">
-        <v>0.1692456759269281</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.5</v>
-      </c>
-      <c r="M23">
-        <v>0.250402</v>
-      </c>
-      <c r="N23">
-        <v>0.500804</v>
-      </c>
-      <c r="O23">
-        <v>0.1064153328083911</v>
-      </c>
-      <c r="P23">
-        <v>0.08464640127211978</v>
-      </c>
-      <c r="Q23">
-        <v>6.509479104762667</v>
-      </c>
-      <c r="R23">
-        <v>39.056874628576</v>
-      </c>
-      <c r="S23">
-        <v>0.01796653993281288</v>
-      </c>
-      <c r="T23">
-        <v>0.0143260373980819</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>25.99611466666667</v>
-      </c>
-      <c r="H24">
-        <v>77.988344</v>
-      </c>
-      <c r="I24">
-        <v>0.1688341281153816</v>
-      </c>
-      <c r="J24">
-        <v>0.1692456759269281</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.050507666666667</v>
-      </c>
-      <c r="N24">
-        <v>3.151523</v>
-      </c>
-      <c r="O24">
-        <v>0.4464426121440712</v>
-      </c>
-      <c r="P24">
-        <v>0.5326736217688253</v>
-      </c>
-      <c r="Q24">
-        <v>27.30911776087911</v>
-      </c>
-      <c r="R24">
-        <v>245.782059847912</v>
-      </c>
-      <c r="S24">
-        <v>0.07537474917489774</v>
-      </c>
-      <c r="T24">
-        <v>0.09015270716470968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>25.99611466666667</v>
-      </c>
-      <c r="H25">
-        <v>77.988344</v>
-      </c>
-      <c r="I25">
-        <v>0.1688341281153816</v>
-      </c>
-      <c r="J25">
-        <v>0.1692456759269281</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.15979</v>
-      </c>
-      <c r="N25">
-        <v>0.47937</v>
-      </c>
-      <c r="O25">
-        <v>0.06790722929310794</v>
-      </c>
-      <c r="P25">
-        <v>0.08102360479911515</v>
-      </c>
-      <c r="Q25">
-        <v>4.153919162586667</v>
-      </c>
-      <c r="R25">
-        <v>37.38527246328</v>
-      </c>
-      <c r="S25">
-        <v>0.01146505785043318</v>
-      </c>
-      <c r="T25">
-        <v>0.01371289476026254</v>
+        <v>0.0004025100353920811</v>
       </c>
     </row>
   </sheetData>
